--- a/src/main/resources/data/queryGraph.xlsx
+++ b/src/main/resources/data/queryGraph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>isRun</t>
   </si>
   <si>
-    <t>图分析视图-addOrQueryGraph-成功查询标签页</t>
+    <t>图分析视图-queryGraphByProjectId-成功查询标签页</t>
   </si>
   <si>
     <t>{"projectId":${projectId}}</t>
@@ -43,7 +43,7 @@
     <t>成功</t>
   </si>
   <si>
-    <t>图分析视图-addOrQueryGraph-项目ID为空，无法新增标签页</t>
+    <t>图分析视图-queryGraphByProjectId-项目ID为空，无法新增标签页</t>
   </si>
   <si>
     <t>{"projectId":""}</t>
@@ -52,19 +52,19 @@
     <t>参数错误</t>
   </si>
   <si>
-    <t>图分析视图-addOrQueryGraph-无入参，无法新增标签页</t>
+    <t>图分析视图-queryGraphByProjectId-无入参，无法新增标签页</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>图分析视图-addOrQueryGraph-项目ID为null，无法查询标签页</t>
+    <t>图分析视图-queryGraphByProjectId-项目ID为null，无法查询标签页</t>
   </si>
   <si>
     <t>{"projectId":null}</t>
   </si>
   <si>
-    <t>图分析视图-addOrQueryGraph-跨账号不能查询标签</t>
+    <t>图分析视图-queryGraphByProjectId-跨账号不能查询标签</t>
   </si>
   <si>
     <t>图分析视图-addGraph-传入他人项目id，无法查询标签页</t>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -127,7 +127,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,20 +239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -162,39 +255,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,75 +276,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -304,18 +304,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,19 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,19 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,109 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +570,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -590,6 +581,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,194 +664,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2032,7 +2032,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
